--- a/CRMApplication/Testdata/Org.xlsx
+++ b/CRMApplication/Testdata/Org.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jai\Java\CRMApplication\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository\CRMApplication\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="3240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>TC_ID</t>
   </si>
@@ -136,22 +136,34 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>jai</t>
   </si>
   <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>instagram_</t>
-  </si>
-  <si>
-    <t>PhnNo</t>
-  </si>
-  <si>
-    <t>8765980087</t>
+    <t>CreateOrg</t>
+  </si>
+  <si>
+    <t>tc-05</t>
+  </si>
+  <si>
+    <t>tc-06</t>
+  </si>
+  <si>
+    <t>CreateContactWithSupportDataTest</t>
+  </si>
+  <si>
+    <t>CreateContactWithOrgTest</t>
+  </si>
+  <si>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>FaceBook</t>
+  </si>
+  <si>
+    <t>kumar_</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,7 +522,6 @@
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="17.54296875" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -560,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -582,9 +599,6 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -598,9 +612,6 @@
       </c>
       <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -610,44 +621,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="31.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
